--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -2208,7 +2208,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-04T07:36:54-07:00</t>
+    <t>2023-08-11T13:12:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2443,33 +2443,33 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$30</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="M2:M1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="N2:N1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'source_storage_duration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="decimal" operator="greaterThan" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$5</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -190,7 +190,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="688" uniqueCount="675">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="673">
   <si>
     <t>parent_id</t>
   </si>
@@ -1809,12 +1809,6 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>N-glycan</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_59520</t>
-  </si>
-  <si>
     <t>Endogenous fluorophores</t>
   </si>
   <si>
@@ -2208,7 +2202,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-08-11T13:12:45-07:00</t>
+    <t>2023-09-08T20:50:58-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2367,49 +2361,49 @@
         <v>528</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="O1" t="s" s="1">
+        <v>655</v>
+      </c>
+      <c r="P1" t="s" s="1">
+        <v>656</v>
+      </c>
+      <c r="Q1" t="s" s="1">
         <v>657</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>658</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>659</v>
       </c>
-      <c r="R1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>660</v>
       </c>
-      <c r="S1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>661</v>
       </c>
-      <c r="T1" t="s" s="1">
+      <c r="V1" t="s" s="1">
         <v>662</v>
       </c>
-      <c r="U1" t="s" s="1">
+      <c r="W1" t="s" s="1">
         <v>663</v>
       </c>
-      <c r="V1" t="s" s="1">
+      <c r="X1" t="s" s="1">
         <v>664</v>
-      </c>
-      <c r="W1" t="s" s="1">
-        <v>665</v>
-      </c>
-      <c r="X1" t="s" s="1">
-        <v>666</v>
       </c>
     </row>
     <row r="2">
@@ -2417,7 +2411,7 @@
         <v>486</v>
       </c>
       <c r="X2" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
     </row>
   </sheetData>
@@ -2432,7 +2426,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="J2:J1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2455,7 +2449,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$5</formula1>
+      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2482,7 +2476,7 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2510,22 +2504,6 @@
       </c>
       <c r="B3" t="s">
         <v>652</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>653</v>
-      </c>
-      <c r="B4" t="s">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>655</v>
-      </c>
-      <c r="B5" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -2549,16 +2527,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C1" t="s">
         <v>669</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>671</v>
-      </c>
-      <c r="D1" t="s">
-        <v>673</v>
       </c>
     </row>
     <row r="2">
@@ -2566,13 +2544,13 @@
         <v>486</v>
       </c>
       <c r="B2" t="s">
+        <v>668</v>
+      </c>
+      <c r="C2" t="s">
         <v>670</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>672</v>
-      </c>
-      <c r="D2" t="s">
-        <v>674</v>
       </c>
     </row>
   </sheetData>
@@ -4701,7 +4679,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4785,14 +4763,6 @@
       </c>
       <c r="B10" t="s">
         <v>548</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>549</v>
-      </c>
-      <c r="B11" t="s">
-        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4810,18 +4780,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B2" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4839,114 +4809,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B1" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B2" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B3" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B4" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B5" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B6" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B7" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B9" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B10" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B11" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B12" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B13" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B14" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -4964,242 +4934,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B1" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B2" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B6" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="B9" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="B14" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B15" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="B16" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="B17" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B18" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="B25" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="B26" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B28" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B30" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -5217,42 +5187,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B3" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -28,11 +28,11 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID (e.g., HBM765.TRHD.452) of the sample (i.e., block, section
-or suspension) used to perform this assay. For example, for a RNAseq assay, the
-parent would be the suspension, whereas this would be the HuBMAP ID of a section
-for one of the imaging assays. If an assay comes from multiple parent samples
-then this should be a comma separated list.</t>
+        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
+perform this assay. For example, for a RNAseq assay, the parent would be the
+suspension, whereas this would be the HuBMAP ID of a section for one of the
+imaging assays. If an assay comes from multiple parent samples then this should
+be a comma separated list. Example: HBM765.TRHD.452</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -47,11 +47,11 @@
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file.</t>
+        <t>DOI for the protocols.io page that describes the assay or sample procurment and
+preparation. For example for an imaging assay, the protocol might include
+staining of a section through the creation of an OME-TIFF file. In this case the
+protocol would include any image processing steps required to create the
+OME-TIFF file. Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -66,8 +66,9 @@
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay. The CODEX analyte is protein.</t>
+        <t>Specifies whether or not a specific molecule(s) is/are targeted for
+detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
+protein.</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
@@ -172,7 +173,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -210,6 +211,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
+    <t>scATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
+  </si>
+  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -222,30 +229,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>snATAC-seq</t>
+    <t>scRNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
+  </si>
+  <si>
+    <t>Xenium</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
+  </si>
+  <si>
+    <t>snATACseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
   </si>
   <si>
-    <t>Xenium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
-  </si>
-  <si>
     <t>Molecular Cartography</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>scRNA-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>CosMx</t>
   </si>
   <si>
@@ -288,114 +295,108 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
-    <t>snRNA-seq</t>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>NanoDESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
+  </si>
+  <si>
+    <t>GeoMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
+  </si>
+  <si>
+    <t>RNAseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
+  </si>
+  <si>
+    <t>MALDI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
+  </si>
+  <si>
+    <t>RNAseq (GeoMx)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+  </si>
+  <si>
+    <t>Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
+  </si>
+  <si>
+    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
+  </si>
+  <si>
+    <t>ATACseq (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>LC-MS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>snRNAseq</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
-  </si>
-  <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
-    <t>MALDI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
-  </si>
-  <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
-  </si>
-  <si>
-    <t>Histology</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000197</t>
-  </si>
-  <si>
-    <t>scATAC-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
-    <t>Enhanced Stimulated Raman Spectroscopy (SRS)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
-  </si>
-  <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
-    <t>LC-MS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>Visium</t>
   </si>
   <si>
@@ -411,6 +412,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Nucleic acid and protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
@@ -582,18 +589,24 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>Zeiss Lightsheet 7</t>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -612,6 +625,18 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
     <t>HiSeq 2500</t>
   </si>
   <si>
@@ -654,36 +679,18 @@
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
-    <t>Zeiss Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
     <t>BZ-X800</t>
   </si>
   <si>
@@ -837,7 +844,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-03T15:12:16-07:00</t>
+    <t>2023-10-06T19:31:06-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -976,57 +983,57 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="T2" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -1035,7 +1042,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$10</formula1>
+      <formula1>'analyte_class'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1386,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1470,6 +1477,14 @@
       </c>
       <c r="B10" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1487,12 +1502,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -1510,114 +1525,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1635,258 +1650,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -1904,42 +1919,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1957,26 +1972,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -2000,30 +2015,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C1" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D1" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -130,15 +130,22 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Number of antibodies</t>
+        <t>(Required) This is the location of the antibodies.tsv file relative to the root
+of the top level of the upload directory structure. This path should begin with
+"." and would likely be something like "./extras/antibodies.tsv".</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
+        <t>(Required) Number of antibodies</t>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="1">
+      <text>
         <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
       </text>
     </comment>
-    <comment ref="Q1" authorId="1">
+    <comment ref="R1" authorId="1">
       <text>
         <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
 a biomarker imaging round consists of 1. oligo application, 2. fluor
@@ -147,13 +154,13 @@
 inactivation.</t>
       </text>
     </comment>
-    <comment ref="R1" authorId="1">
+    <comment ref="S1" authorId="1">
       <text>
         <t>(Required) The total number of acquisitions performed on microscope to collect
 autofluorescence/background or stained signal (e.g., histology).</t>
       </text>
     </comment>
-    <comment ref="S1" authorId="1">
+    <comment ref="T1" authorId="1">
       <text>
         <t>(Required) A unique ID denoting the slide used. This allows users the ability to
 determine which tissue sections were processed together on the same slide. It is
@@ -161,7 +168,7 @@
 values overlapping across centers.</t>
       </text>
     </comment>
-    <comment ref="T1" authorId="1">
+    <comment ref="U1" authorId="1">
       <text>
         <t>(Required) The string that serves as the definitive identifier for the metadata
 schema version and is readily interpretable by computers for data validation and
@@ -173,7 +180,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -595,12 +602,24 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -733,6 +752,18 @@
     <t>https://identifiers.org/RRID:SCR_023195</t>
   </si>
   <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
     <t>NextSeq 550</t>
   </si>
   <si>
@@ -811,6 +842,9 @@
     <t>data_path</t>
   </si>
   <si>
+    <t>antibodies_path</t>
+  </si>
+  <si>
     <t>number_of_antibodies</t>
   </si>
   <si>
@@ -844,7 +878,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-06T19:31:06-07:00</t>
+    <t>2023-10-16T20:48:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -903,7 +937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyAlignment="true" applyFill="true">
       <alignment horizontal="center"/>
@@ -919,6 +953,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -938,7 +973,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -958,12 +993,13 @@
     <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
     <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="30.91015625" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="15.234375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="20.875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="19.44140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="36.0" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="30.91015625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.8125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="19.61328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -992,48 +1028,51 @@
         <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>197</v>
+        <v>205</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>215</v>
+        <v>223</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>217</v>
+        <v>225</v>
+      </c>
+      <c r="U1" t="s" s="1">
+        <v>226</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
         <v>36</v>
       </c>
-      <c r="T2" t="s">
-        <v>218</v>
+      <c r="U2" t="s">
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1090,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$32</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1067,10 +1106,6 @@
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
-      <formula1>0</formula1>
-      <formula2/>
-    </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
@@ -1080,6 +1115,10 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
+      <formula1>0</formula1>
+      <formula2/>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
@@ -1642,7 +1681,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1902,6 +1941,38 @@
       </c>
       <c r="B32" t="s">
         <v>195</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>196</v>
+      </c>
+      <c r="B33" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B36" t="s">
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -1919,42 +1990,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -1972,26 +2043,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2015,16 +2086,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>228</v>
       </c>
       <c r="B1" t="s">
-        <v>220</v>
+        <v>229</v>
       </c>
       <c r="C1" t="s">
-        <v>222</v>
+        <v>231</v>
       </c>
       <c r="D1" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
@@ -2032,13 +2103,13 @@
         <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>221</v>
+        <v>230</v>
       </c>
       <c r="C2" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="D2" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -28,11 +28,12 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) HuBMAP ID of the sample (i.e., block, section or suspension) used to
-perform this assay. For example, for a RNAseq assay, the parent would be the
-suspension, whereas this would be the HuBMAP ID of a section for one of the
-imaging assays. If an assay comes from multiple parent samples then this should
-be a comma separated list. Example: HBM765.TRHD.452</t>
+        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
+section or suspension) used to perform this assay. For example, for a RNAseq
+assay, the parent would be the suspension, whereas, for one of the imaging
+assays, the parent would be the tissue section. If an assay comes from multiple
+parent samples then this should be a comma separated list. Example:
+HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
@@ -212,6 +213,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
   </si>
   <si>
+    <t>MIBI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
@@ -272,12 +279,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
   </si>
   <si>
-    <t>Multiplex Ion Beam Imaging</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -515,12 +516,6 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
-    <t>Bruker Daltonics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023608</t>
-  </si>
-  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -533,6 +528,12 @@
     <t>https://identifiers.org/RRID:SCR_023651</t>
   </si>
   <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -878,7 +879,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-16T20:48:49-07:00</t>
+    <t>2023-10-27T18:06:07-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -207,12 +207,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
-    <t>nanoPOTS</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000246</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
@@ -315,12 +309,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>NanoDESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000203</t>
-  </si>
-  <si>
     <t>GeoMx</t>
   </si>
   <si>
@@ -339,6 +327,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>2D Imaging Mass Cytometry</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
+  </si>
+  <si>
     <t>RNAseq (GeoMx)</t>
   </si>
   <si>
@@ -585,6 +579,12 @@
     <t>https://identifiers.org/RRID:SCR_023611</t>
   </si>
   <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
     <t>BZ-X710</t>
   </si>
   <si>
@@ -639,6 +639,12 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -879,7 +885,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-10-27T18:06:07-07:00</t>
+    <t>2023-11-02T15:43:55-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1017,69 +1023,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="U2" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1091,7 +1097,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$36</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1132,7 +1138,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1416,14 +1422,6 @@
       </c>
       <c r="B35" t="s">
         <v>73</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -1441,90 +1439,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B10" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1542,12 +1540,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1565,114 +1563,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1682,7 +1680,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1690,290 +1688,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B3" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B17" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B18" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B19" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B22" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B23" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B24" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B28" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B29" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B32" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B34" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B35" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
+        <v>200</v>
+      </c>
+      <c r="B36" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
         <v>202</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>203</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>204</v>
+      </c>
+      <c r="B38" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -1991,42 +2005,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2044,26 +2058,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -2087,30 +2101,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C1" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D1" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -885,7 +885,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-02T15:43:55-07:00</t>
+    <t>2023-11-07T20:04:10-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -181,7 +181,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="233">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -213,18 +213,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
     <t>DESI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
   </si>
   <si>
-    <t>scATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000247</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
@@ -237,22 +237,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
-    <t>scRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000248</t>
-  </si>
-  <si>
     <t>Xenium</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>snATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000183</t>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
   </si>
   <si>
     <t>Molecular Cartography</t>
@@ -279,12 +273,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000202</t>
   </si>
   <si>
-    <t>RNAseq (Visium)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000188</t>
-  </si>
-  <si>
     <t>Cell DIVE</t>
   </si>
   <si>
@@ -297,6 +285,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000160</t>
   </si>
   <si>
+    <t>GeoMx (NGS)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -309,18 +303,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
-    <t>GeoMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000216</t>
-  </si>
-  <si>
-    <t>RNAseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000212</t>
-  </si>
-  <si>
     <t>MALDI</t>
   </si>
   <si>
@@ -333,10 +315,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>RNAseq (GeoMx)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000214</t>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
     <t>Histology</t>
@@ -351,10 +333,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
-    <t>ATACseq (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000210</t>
+    <t>RNAseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
     <t>MERFISH</t>
@@ -369,12 +351,30 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000194</t>
   </si>
   <si>
+    <t>nanoSPLITS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
   </si>
   <si>
+    <t>GeoMx (nCounter)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
+  </si>
+  <si>
+    <t>RNAseq (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -393,18 +393,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
-    <t>snRNAseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000184</t>
-  </si>
-  <si>
-    <t>Visium</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000187</t>
-  </si>
-  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -885,7 +873,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-07T20:04:10-08:00</t>
+    <t>2023-11-15T17:12:29-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1023,69 +1011,69 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="K1" t="s" s="1">
+        <v>214</v>
+      </c>
+      <c r="L1" t="s" s="1">
+        <v>215</v>
+      </c>
+      <c r="M1" t="s" s="1">
+        <v>216</v>
+      </c>
+      <c r="N1" t="s" s="1">
+        <v>217</v>
+      </c>
+      <c r="O1" t="s" s="1">
         <v>218</v>
       </c>
-      <c r="L1" t="s" s="1">
+      <c r="P1" t="s" s="1">
         <v>219</v>
       </c>
-      <c r="M1" t="s" s="1">
+      <c r="Q1" t="s" s="1">
         <v>220</v>
       </c>
-      <c r="N1" t="s" s="1">
+      <c r="R1" t="s" s="1">
         <v>221</v>
       </c>
-      <c r="O1" t="s" s="1">
+      <c r="S1" t="s" s="1">
         <v>222</v>
       </c>
-      <c r="P1" t="s" s="1">
+      <c r="T1" t="s" s="1">
         <v>223</v>
       </c>
-      <c r="Q1" t="s" s="1">
+      <c r="U1" t="s" s="1">
         <v>224</v>
-      </c>
-      <c r="R1" t="s" s="1">
-        <v>225</v>
-      </c>
-      <c r="S1" t="s" s="1">
-        <v>226</v>
-      </c>
-      <c r="T1" t="s" s="1">
-        <v>227</v>
-      </c>
-      <c r="U1" t="s" s="1">
-        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="U2" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$35</formula1>
+      <formula1>'dataset_type'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$11</formula1>
@@ -1138,7 +1126,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1406,22 +1394,6 @@
       </c>
       <c r="B33" t="s">
         <v>69</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B35" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1439,90 +1411,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B8" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1540,12 +1512,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1563,114 +1535,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B14" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -1688,306 +1660,306 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B3" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B9" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B11" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B19" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B20" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B24" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B25" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B26" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B27" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B29" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B30" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B31" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B33" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B35" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B36" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2005,42 +1977,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>
@@ -2058,26 +2030,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
   </sheetData>
@@ -2101,30 +2073,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" t="s">
         <v>231</v>
-      </c>
-      <c r="C1" t="s">
-        <v>233</v>
-      </c>
-      <c r="D1" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
         <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -873,7 +873,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-15T17:12:29-08:00</t>
+    <t>2023-11-24T09:43:04-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -988,7 +988,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-25T09:40:10-08:00</t>
+    <t>2024-01-29T14:10:59-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1091,29 +1091,29 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="15.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="20.875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="19.44140625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="36.0" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="30.91015625" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="7.8125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="28.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="22.81640625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="13.14453125" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="18.0078125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="16.76953125" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="31.0546875" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="26.6640625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="6.7421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="24.71875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="19.68359375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1188,10 +1188,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>30</v>
       </c>
-      <c r="W2" t="s">
+      <c r="W2" t="s" s="24">
         <v>255</v>
       </c>
     </row>
@@ -1224,7 +1224,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThanOrEqual" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1264,12 +1264,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>249</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>253</v>
       </c>
     </row>
@@ -1286,37 +1286,37 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="79.4296875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.51953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>256</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>257</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" t="s" s="0">
         <v>261</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>258</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="0">
         <v>262</v>
       </c>
     </row>
@@ -1334,266 +1334,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -1611,90 +1611,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -1712,12 +1712,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -1735,154 +1735,154 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>130</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>132</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>133</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>134</v>
       </c>
     </row>
@@ -1900,362 +1900,362 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>140</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>142</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>150</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>158</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>168</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>176</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>184</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>188</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>190</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>192</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
+      <c r="A34" t="s" s="0">
         <v>202</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" t="s" s="0">
         <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
+      <c r="A35" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" t="s" s="0">
         <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
+      <c r="A36" t="s" s="0">
         <v>206</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" t="s" s="0">
         <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
+      <c r="A37" t="s" s="0">
         <v>208</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" t="s" s="0">
         <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
+      <c r="A38" t="s" s="0">
         <v>210</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" t="s" s="0">
         <v>211</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
+      <c r="A39" t="s" s="0">
         <v>212</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" t="s" s="0">
         <v>213</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
+      <c r="A40" t="s" s="0">
         <v>214</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" t="s" s="0">
         <v>215</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
+      <c r="A41" t="s" s="0">
         <v>216</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" t="s" s="0">
         <v>217</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
+      <c r="A42" t="s" s="0">
         <v>218</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" t="s" s="0">
         <v>219</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="s">
+      <c r="A43" t="s" s="0">
         <v>220</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" t="s" s="0">
         <v>221</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="s">
+      <c r="A44" t="s" s="0">
         <v>222</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" t="s" s="0">
         <v>223</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s">
+      <c r="A45" t="s" s="0">
         <v>224</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" t="s" s="0">
         <v>225</v>
       </c>
     </row>
@@ -2273,42 +2273,42 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>236</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>237</v>
       </c>
     </row>
@@ -2326,26 +2326,26 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>232</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>235</v>
       </c>
     </row>
@@ -2363,17 +2363,17 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>249</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>250</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>251</v>
       </c>
     </row>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="285">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -316,6 +316,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -421,6 +427,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -541,6 +553,12 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -553,6 +571,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
     <t>Akoya Biosciences</t>
   </si>
   <si>
@@ -595,6 +619,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -634,16 +664,142 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
   </si>
   <si>
     <t>Axio Observer 7</t>
@@ -652,52 +808,34 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
   </si>
   <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
@@ -712,18 +850,18 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -754,12 +892,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -772,40 +904,16 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
   </si>
   <si>
     <t>MIBIscope</t>
@@ -814,18 +922,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -838,36 +934,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -988,7 +1054,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:10:59-08:00</t>
+    <t>2024-04-01T14:47:26-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1130,61 +1196,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>254</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
@@ -1192,25 +1258,25 @@
         <v>30</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>255</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1265,12 +1331,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>253</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -1294,16 +1360,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>259</v>
+        <v>281</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>261</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
@@ -1311,13 +1377,13 @@
         <v>30</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>260</v>
+        <v>282</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>262</v>
+        <v>284</v>
       </c>
     </row>
   </sheetData>
@@ -1327,7 +1393,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1597,6 +1663,14 @@
         <v>69</v>
       </c>
     </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1604,7 +1678,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1612,90 +1686,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1713,12 +1795,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1728,7 +1810,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1736,154 +1818,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1893,7 +1999,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1901,362 +2007,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2274,42 +2428,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2327,26 +2481,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2364,17 +2518,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>249</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>250</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>251</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -268,6 +268,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -364,6 +370,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -445,22 +457,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -487,27 +529,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -556,7 +586,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -664,6 +694,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1021,9 +1057,6 @@
     <t>cell_boundary_marker_or_stain</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
     <t>NAKATPASE</t>
   </si>
   <si>
@@ -1054,7 +1087,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:47:26-07:00</t>
+    <t>2024-08-03T11:40:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1196,78 +1229,78 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>276</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>277</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -1276,7 +1309,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1331,12 +1364,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>271</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>275</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -1360,30 +1393,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>290</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>281</v>
+        <v>292</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>283</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>280</v>
+        <v>291</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>282</v>
+        <v>293</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>284</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -1393,7 +1426,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1671,6 +1704,22 @@
         <v>71</v>
       </c>
     </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1678,7 +1727,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1686,98 +1735,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1795,12 +1868,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1818,178 +1891,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -1999,7 +2072,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2007,410 +2080,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -2428,42 +2509,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -2481,26 +2562,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2518,17 +2599,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>273</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -206,7 +206,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="304">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -346,6 +346,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -370,6 +376,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -445,18 +457,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -469,13 +481,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -511,24 +529,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -631,6 +649,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1087,7 +1111,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:40:45-07:00</t>
+    <t>2025-01-08T12:41:59-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1229,61 +1253,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
@@ -1291,22 +1315,22 @@
         <v>32</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -1364,12 +1388,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -1393,16 +1417,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
@@ -1410,13 +1434,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -1426,7 +1450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1720,6 +1744,22 @@
         <v>75</v>
       </c>
     </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1727,7 +1767,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1735,122 +1775,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1868,12 +1916,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1883,7 +1931,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1891,178 +1939,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2080,418 +2136,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2509,42 +2565,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2562,26 +2618,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2599,17 +2655,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>284</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -50,11 +50,12 @@
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>DOI for the protocols.io page that describes the assay or sample procurment and
-preparation. For example for an imaging assay, the protocol might include
-staining of a section through the creation of an OME-TIFF file. In this case the
-protocol would include any image processing steps required to create the
-OME-TIFF file. Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+        <t>DOI for the protocols.io page that describes the assay or sample procurement and
+preparation. For example for an imaging assay, the protocol might begin with
+staining of a section and finalize with the creation of an OME-TIFF file. In
+this case the protocol would include any image processing steps required to
+create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -103,8 +104,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -151,10 +152,10 @@
     <comment ref="R1" authorId="1">
       <text>
         <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
-a biomarker imaging round consists of 1. oligo application, 2. fluor
-application, 3. washes. For Cell DIVE a biomarker imaging round consists of 1.
-staining of a biomarker via secondary detection or direct conjugate and 2. dye
-inactivation.</t>
+a biomarker imaging round consists of 1. oligo and fluor application, 2.
+imaging, 3. removal of oligo and fluor along washes. For Cell DIVE a biomarker
+imaging round consists of 1. staining of a biomarker via secondary detection or
+direct conjugate and 2. dye inactivation.</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="342">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -292,10 +293,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -394,6 +395,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -448,6 +455,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -559,40 +578,106 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
   </si>
   <si>
     <t>Standard BioTools (Fluidigm)</t>
@@ -601,12 +686,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -619,18 +698,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -655,48 +722,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -748,6 +785,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -766,12 +809,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -784,12 +845,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -802,12 +875,30 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -832,6 +923,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -874,6 +971,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -952,6 +1055,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -994,6 +1103,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1111,7 +1226,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:41:59-08:00</t>
+    <t>2025-04-24T10:47:34-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1253,61 +1368,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>286</v>
+        <v>324</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>293</v>
+        <v>331</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>295</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
@@ -1315,13 +1430,13 @@
         <v>32</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>296</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="15">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1330,10 +1445,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1388,12 +1503,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -1417,16 +1532,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>300</v>
+        <v>338</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>302</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
@@ -1434,13 +1549,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>301</v>
+        <v>339</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>303</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -1450,7 +1565,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1758,6 +1873,30 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -1775,130 +1914,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1916,12 +2055,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -1931,7 +2070,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1939,186 +2078,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>171</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2128,7 +2291,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2136,418 +2299,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2565,42 +2840,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -2618,26 +2893,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2655,17 +2930,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>292</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="342">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="346">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -947,6 +947,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1016,7 +1028,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -1226,7 +1238,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:47:34-07:00</t>
+    <t>2025-05-12T10:13:49-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1380,49 +1392,49 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -1430,7 +1442,7 @@
         <v>32</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -1448,7 +1460,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1503,7 +1515,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
@@ -1532,16 +1544,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
@@ -1549,13 +1561,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2291,7 +2303,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2747,26 +2759,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -2823,6 +2835,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2840,42 +2868,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2893,26 +2921,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2930,12 +2958,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -14,9 +14,7 @@
     <sheet name="acquisition_instrument_model" r:id="rId8" sheetId="6"/>
     <sheet name="source_storage_duration_unit" r:id="rId9" sheetId="7"/>
     <sheet name="time_since_acquisition_instrume" r:id="rId10" sheetId="8"/>
-    <sheet name="cell_boundary_marker_or_stain" r:id="rId11" sheetId="9"/>
-    <sheet name="nuclear_marker_or_stain" r:id="rId12" sheetId="10"/>
-    <sheet name=".metadata" r:id="rId13" sheetId="11"/>
+    <sheet name=".metadata" r:id="rId11" sheetId="9"/>
   </sheets>
 </workbook>
 </file>
@@ -174,9 +172,9 @@
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) If a marker or stain was used to identify all cell boundaries in the
-tissue, then the name of the marker or stain should be included here. The name
-of the antibody-targeted molecule marker or non-antibody targeted molecule stain
+        <t>If a marker or stain was used to identify all cell boundaries in the tissue,
+then the name of the marker or stain should be included here. The name of the
+antibody-targeted molecule marker or non-antibody targeted molecule stain
 included here must be identical to what is found in the imaging data. For
 example, with the PhenoCycler, this name must match the value found in the XPD
 output file. If multiple marker or stains are used to identify all cell
@@ -185,14 +183,14 @@
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>(Required) For markers, an antibody-targetted molecule present in or around the
-cell nucleus, the protein or gene symbol that identifies the antibody target
-that is used as the nuclear marker. This symbol must match the antibody target
-that is either generated from the panel used or entered with custom panels.
-Preferably, if using a custom antibody marker, this symbol should be the HGNC
-symbol (https://www.genenames.org/).   For non-protein targets this is the stain
-name (e.g., DAPI) and, when appropriate, associated staining kit and vendor. For
-the PhenoCycler, this symbol must match the value found in the XPD output file.</t>
+        <t>For markers, an antibody-targetted molecule present in or around the cell
+nucleus, the protein or gene symbol that identifies the antibody target that is
+used as the nuclear marker. This symbol must match the antibody target that is
+either generated from the panel used or entered with custom panels. Preferably,
+if using a custom antibody marker, this symbol should be the HGNC symbol
+(https://www.genenames.org/).   For non-protein targets this is the stain name
+(e.g., DAPI) and, when appropriate, associated staining kit and vendor. For the
+PhenoCycler, this symbol must match the value found in the XPD output file.</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
@@ -207,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="343">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1208,18 +1206,9 @@
     <t>cell_boundary_marker_or_stain</t>
   </si>
   <si>
-    <t>NAKATPASE</t>
-  </si>
-  <si>
-    <t>CD298</t>
-  </si>
-  <si>
     <t>nuclear_marker_or_stain</t>
   </si>
   <si>
-    <t>DAPI</t>
-  </si>
-  <si>
     <t>metadata_schema_id</t>
   </si>
   <si>
@@ -1238,7 +1227,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:13:49-07:00</t>
+    <t>2025-05-29T09:44:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1431,10 +1420,10 @@
         <v>332</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
@@ -1442,11 +1431,11 @@
         <v>32</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="15">
+  <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
@@ -1492,86 +1481,10 @@
       <formula1>0</formula1>
       <formula2/>
     </dataValidation>
-    <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'cell_boundary_marker_or_stain'!$A$1:$A$3</formula1>
-    </dataValidation>
-    <dataValidation type="list" sqref="V2:V1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'nuclear_marker_or_stain'!$A$1:$A$2</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>182</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <cols>
-    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="68.51953125" customWidth="true" bestFit="true"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>339</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>340</v>
-      </c>
-      <c r="C1" t="s" s="0">
-        <v>342</v>
-      </c>
-      <c r="D1" t="s" s="0">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>341</v>
-      </c>
-      <c r="C2" t="s" s="0">
-        <v>343</v>
-      </c>
-      <c r="D2" t="s" s="0">
-        <v>345</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
@@ -2950,25 +2863,44 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="10.20703125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.51953125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>336</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>32</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>342</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="347">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -270,7 +270,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -363,6 +363,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -600,6 +606,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -1227,7 +1239,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-29T09:44:18-07:00</t>
+    <t>2025-06-04T13:59:30-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1369,61 +1381,61 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
@@ -1431,13 +1443,13 @@
         <v>32</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1446,7 +1458,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
@@ -1490,7 +1502,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1822,6 +1834,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1839,130 +1859,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1980,12 +2000,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -1995,7 +2015,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2003,210 +2023,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2224,546 +2252,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2781,42 +2809,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2834,26 +2862,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2877,16 +2905,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
@@ -2894,13 +2922,13 @@
         <v>32</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -172,9 +172,9 @@
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>If a marker or stain was used to identify all cell boundaries in the tissue,
-then the name of the marker or stain should be included here. The name of the
-antibody-targeted molecule marker or non-antibody targeted molecule stain
+        <t>(Required) If a marker or stain was used to identify all cell boundaries in the
+tissue, then the name of the marker or stain should be included here. The name
+of the antibody-targeted molecule marker or non-antibody targeted molecule stain
 included here must be identical to what is found in the imaging data. For
 example, with the PhenoCycler, this name must match the value found in the XPD
 output file. If multiple marker or stains are used to identify all cell
@@ -183,14 +183,14 @@
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>For markers, an antibody-targetted molecule present in or around the cell
-nucleus, the protein or gene symbol that identifies the antibody target that is
-used as the nuclear marker. This symbol must match the antibody target that is
-either generated from the panel used or entered with custom panels. Preferably,
-if using a custom antibody marker, this symbol should be the HGNC symbol
-(https://www.genenames.org/).   For non-protein targets this is the stain name
-(e.g., DAPI) and, when appropriate, associated staining kit and vendor. For the
-PhenoCycler, this symbol must match the value found in the XPD output file.</t>
+        <t>(Required) For markers, an antibody-targetted molecule present in or around the
+cell nucleus, the protein or gene symbol that identifies the antibody target
+that is used as the nuclear marker. This symbol must match the antibody target
+that is either generated from the panel used or entered with custom panels.
+Preferably, if using a custom antibody marker, this symbol should be the HGNC
+symbol (https://www.genenames.org/).   For non-protein targets this is the stain
+name (e.g., DAPI) and, when appropriate, associated staining kit and vendor. For
+the PhenoCycler, this symbol must match the value found in the XPD output file.</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="379">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -225,6 +225,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -261,6 +267,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
   </si>
   <si>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
+  </si>
+  <si>
     <t>Xenium</t>
   </si>
   <si>
@@ -270,7 +282,7 @@
     <t>Stereo-seq</t>
   </si>
   <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000434</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
   </si>
   <si>
     <t>Visium (with probes)</t>
@@ -297,6 +309,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -423,6 +441,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
+    <t>Pixel-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
+  </si>
+  <si>
     <t>10X Multiome</t>
   </si>
   <si>
@@ -441,6 +465,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
     <t>PhenoCycler</t>
   </si>
   <si>
@@ -471,6 +501,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
   </si>
   <si>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -612,6 +648,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -726,12 +768,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -765,6 +819,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -873,6 +933,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -951,6 +1017,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -987,6 +1059,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1101,6 +1179,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1113,6 +1197,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1137,6 +1227,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1239,7 +1335,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-04T13:59:30-07:00</t>
+    <t>2025-07-24T21:13:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1381,75 +1477,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>314</v>
+        <v>346</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>327</v>
+        <v>359</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>329</v>
+        <v>361</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>331</v>
+        <v>363</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>333</v>
+        <v>365</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>335</v>
+        <v>367</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>337</v>
+        <v>369</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>338</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1458,10 +1554,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1502,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1842,6 +1938,54 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1859,130 +2003,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2000,12 +2144,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>134</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2015,7 +2159,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2023,218 +2167,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>150</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>158</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>160</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>172</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>176</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>178</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>183</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>185</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>187</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>188</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>191</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2244,7 +2412,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B75"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2252,546 +2420,602 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>201</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>184</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>185</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>204</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>188</v>
+        <v>206</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>189</v>
+        <v>207</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>208</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>191</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>192</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>193</v>
+        <v>211</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>194</v>
+        <v>212</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>195</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>197</v>
+        <v>215</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>199</v>
+        <v>217</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>221</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>205</v>
+        <v>223</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>207</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>209</v>
+        <v>227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>210</v>
+        <v>228</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>211</v>
+        <v>229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>212</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>213</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>214</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>215</v>
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>216</v>
+        <v>234</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>217</v>
+        <v>235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>218</v>
+        <v>236</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>219</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>220</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>221</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>222</v>
+        <v>240</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>223</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>224</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>225</v>
+        <v>243</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>226</v>
+        <v>244</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>227</v>
+        <v>245</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>248</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>231</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>232</v>
+        <v>250</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>233</v>
+        <v>251</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>235</v>
+        <v>253</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>237</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>238</v>
+        <v>256</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>258</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>242</v>
+        <v>260</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>261</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>244</v>
+        <v>262</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>245</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>246</v>
+        <v>264</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>247</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>249</v>
+        <v>267</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>250</v>
+        <v>268</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>253</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>255</v>
+        <v>273</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>257</v>
+        <v>275</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>276</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>261</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>262</v>
+        <v>280</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>263</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>282</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>266</v>
+        <v>284</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>267</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>269</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>272</v>
+        <v>290</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>273</v>
+        <v>291</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>292</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>275</v>
+        <v>293</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>276</v>
+        <v>294</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>277</v>
+        <v>295</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>278</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>279</v>
+        <v>297</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>280</v>
+        <v>298</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>281</v>
+        <v>299</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>300</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>301</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>302</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>303</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>286</v>
+        <v>304</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>287</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>306</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>307</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>292</v>
+        <v>310</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>293</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>294</v>
+        <v>312</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>295</v>
+        <v>313</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>153</v>
+        <v>314</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>154</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>302</v>
+        <v>167</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>303</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>304</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>305</v>
+        <v>323</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>306</v>
+        <v>324</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>307</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>308</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>310</v>
+        <v>328</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>311</v>
+        <v>329</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>312</v>
+        <v>330</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>313</v>
+        <v>331</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2809,42 +3033,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2862,26 +3086,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -2905,30 +3129,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>373</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>343</v>
+        <v>375</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>345</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>346</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -205,7 +205,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="382">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -225,48 +225,168 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
   </si>
   <si>
+    <t>SNARE-seq2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>CosMx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>Olink</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
   </si>
   <si>
-    <t>SNARE-seq2</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
-  </si>
-  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
-  </si>
-  <si>
     <t>FACS</t>
   </si>
   <si>
@@ -279,42 +399,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>Seq-Scope</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -345,16 +429,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -363,30 +441,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -417,18 +477,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -441,18 +489,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>Pixel-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000449</t>
-  </si>
-  <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -465,42 +501,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>4i</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
-  </si>
-  <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
-  </si>
-  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -1155,6 +1161,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1335,7 +1344,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-07-24T21:13:53-07:00</t>
+    <t>2025-08-20T09:47:37-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1477,75 +1486,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>370</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$48</formula1>
+      <formula1>'dataset_type'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1557,7 +1566,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$75</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$76</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1598,7 +1607,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1986,6 +1995,14 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2003,130 +2020,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2144,12 +2161,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
@@ -2167,242 +2184,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -2412,7 +2429,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B75"/>
+  <dimension ref="A1:B76"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2420,602 +2437,610 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>316</v>
+        <v>66</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>317</v>
+        <v>318</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>319</v>
+        <v>320</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>167</v>
+        <v>323</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>168</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>322</v>
+        <v>169</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>323</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>329</v>
+        <v>330</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>341</v>
+        <v>342</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>345</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -3033,42 +3058,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>357</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3086,26 +3111,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -3129,30 +3154,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>378</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -28,175 +28,184 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>DOI for the protocols.io page that describes the assay or sample procurement and
-preparation. For example for an imaging assay, the protocol might begin with
-staining of a section and finalize with the creation of an OME-TIFF file. In
-this case the protocol would include any image processing steps required to
-create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"/TEST001-RK/" for this field. If there are multiple directory levels, use the
-format "/TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) This is the location of the antibodies.tsv file relative to the root
-of the top level of the upload directory structure. This path should begin with
-"." and would likely be something like "./extras/antibodies.tsv".</t>
+        <t>(Required) The path to the antibodies.tsv file relative to the root directory of
+the upload structure. This path should start with "." and is typically formatted
+as "./extras/antibodies.tsv". Example: ./extras/antibodies.tsv</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) Number of antibodies</t>
+        <t>(Required) The number of antibodies used in the assay. If no antibodies were
+utilized, enter 0. Example: 5</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) Number of fluorescent channels imaged during each cycle.</t>
+        <t>(Required) The number of fluorescent channels that are imaged during each cycle.
+Example: 3</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Number of imaging rounds to capture the tagged biomarkers. For CODEX
-a biomarker imaging round consists of 1. oligo and fluor application, 2.
-imaging, 3. removal of oligo and fluor along washes. For Cell DIVE a biomarker
-imaging round consists of 1. staining of a biomarker via secondary detection or
-direct conjugate and 2. dye inactivation.</t>
+        <t>(Required) The number of imaging rounds required to capture the tagged
+biomarkers. For CODEX, a biomarker imaging round includes steps such as (1)
+oligo application, (2) fluor application, and (3) washes. For Cell DIVE, it
+involves (1) the staining of a biomarker via secondary detection or direct
+conjugate, followed by (2) dye inactivation. Example: 3</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) The total number of acquisitions performed on microscope to collect
-autofluorescence/background or stained signal (e.g., histology).</t>
+        <t>(Required) The total number of imaging rounds performed using a microscope to
+collect either autofluorescence/background or stained signals, such as those
+used in histological analysis. Example: 5</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) A unique ID denoting the slide used. This allows users the ability to
+        <t>(Required) The unique identifier assigned to each slide, enabling users to
 determine which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+recommended that data providers prefix the ID with the center name to prevent
+overlapping values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) If a marker or stain was used to identify all cell boundaries in the
-tissue, then the name of the marker or stain should be included here. The name
-of the antibody-targeted molecule marker or non-antibody targeted molecule stain
-included here must be identical to what is found in the imaging data. For
-example, with the PhenoCycler, this name must match the value found in the XPD
-output file. If multiple marker or stains are used to identify all cell
-boundaries, then a comma separated list should be used here.</t>
+        <t>(Required) The name of the marker or stain used to identify all cell boundaries
+in the tissue. This name must exactly match the antibody-targeted molecule
+marker or non-antibody targeted molecule stain as found in the imaging data. For
+example, in the case of using the PhenoCycler, ensure the name corresponds to
+the value in the XPD output file. If multiple markers or stains are employed,
+list them in a comma-separated format. Example: Pan-Cytokeratin, E-Cadherin</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>(Required) For markers, an antibody-targetted molecule present in or around the
-cell nucleus, the protein or gene symbol that identifies the antibody target
-that is used as the nuclear marker. This symbol must match the antibody target
-that is either generated from the panel used or entered with custom panels.
-Preferably, if using a custom antibody marker, this symbol should be the HGNC
-symbol (https://www.genenames.org/).   For non-protein targets this is the stain
-name (e.g., DAPI) and, when appropriate, associated staining kit and vendor. For
-the PhenoCycler, this symbol must match the value found in the XPD output file.</t>
+        <t>(Required) The nuclear marker or stain used, which can be an antibody-targeted
+molecule present in or around the cell nucleus. For protein targets, use the
+protein or gene symbol that identifies the antibody target, ensuring it matches
+the antibody target from the panel used or custom panels. Preferably, if using a
+custom antibody marker, this symbol should be the HGNC symbol
+(https://www.genenames.org/). For non-protein targets, provide the stain name
+(e.g., DAPI) and, when applicable, include the associated staining kit and
+vendor. For the PhenoCycler, ensure the symbol matches the value found in the
+XPD output file. Example: DAPI</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -205,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="386">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -231,6 +240,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
     <t>Visium (no probes)</t>
   </si>
   <si>
@@ -267,24 +282,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
-    <t>CosMx</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
-    <t>Seq-Scope</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
-  </si>
-  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -1194,6 +1209,12 @@
     <t>https://identifiers.org/RRID:SCR_027095</t>
   </si>
   <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1344,7 +1365,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-08-20T09:47:37-07:00</t>
+    <t>2025-10-17T14:04:02-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1486,75 +1507,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$49</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1566,7 +1587,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$76</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1607,7 +1628,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2003,6 +2024,14 @@
       </c>
       <c r="B49" t="s" s="0">
         <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2020,130 +2049,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -2161,12 +2190,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -2184,242 +2213,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -2429,7 +2458,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B76"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2437,610 +2466,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -3058,42 +3095,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3111,26 +3148,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -3154,30 +3191,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="388">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -282,6 +282,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -537,18 +543,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -1365,7 +1371,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-17T14:04:02-07:00</t>
+    <t>2025-11-19T14:37:19-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1507,75 +1513,75 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="13">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -1628,7 +1634,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2032,6 +2038,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -2049,130 +2063,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -2190,12 +2204,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2213,242 +2227,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -2466,618 +2480,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -3095,42 +3109,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3148,26 +3162,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3191,30 +3205,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
   </sheetData>

--- a/celldive/latest/celldive.xlsx
+++ b/celldive/latest/celldive.xlsx
@@ -214,7 +214,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="390">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -543,6 +543,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1371,7 +1377,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:37:19-08:00</t>
+    <t>2025-11-20T09:38:19-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1516,58 +1522,58 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="2">
@@ -1575,7 +1581,7 @@
         <v>70</v>
       </c>
       <c r="W2" t="s" s="24">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -1584,7 +1590,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2055,7 +2061,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2187,6 +2193,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2204,12 +2218,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2227,242 +2241,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -2480,474 +2494,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -2955,143 +2969,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -3109,42 +3123,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3162,26 +3176,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3205,16 +3219,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
@@ -3222,13 +3236,13 @@
         <v>70</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
